--- a/数算/STL常用方法.xlsx
+++ b/数算/STL常用方法.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fuya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Summary\Document\KnowledgeNetwork\知识网络\数算\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF118E0-723D-4C45-9685-5E17CF12AEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6F2B6C-81B1-4C95-BA9B-B582EE4E0FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1F9A8F29-532E-42C7-A6AF-F3EACB77596F}"/>
+    <workbookView xWindow="0" yWindow="852" windowWidth="17280" windowHeight="8880" xr2:uid="{1F9A8F29-532E-42C7-A6AF-F3EACB77596F}"/>
   </bookViews>
   <sheets>
     <sheet name="STL常用方法" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="51">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,18 @@
   </si>
   <si>
     <t>注重管理内存：reserve、shrink_to_fit、data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 随机访问迭代器 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 双向迭代器 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前向迭代器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -277,7 +289,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -291,22 +303,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A7CA18-52A8-43A1-BF65-A96A93D83536}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -633,7 +648,9 @@
     <col min="1" max="1" width="21.33203125" style="1" customWidth="1"/>
     <col min="2" max="7" width="8.88671875" style="1"/>
     <col min="8" max="8" width="10.109375" style="1" customWidth="1"/>
-    <col min="9" max="12" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="16.5546875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="8.88671875" style="1"/>
     <col min="13" max="13" width="12" style="1" customWidth="1"/>
     <col min="14" max="20" width="8.88671875" style="1"/>
     <col min="21" max="21" width="39.6640625" style="1" customWidth="1"/>
@@ -646,32 +663,32 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="9" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -725,9 +742,9 @@
       <c r="R2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
     </row>
     <row r="3" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -758,7 +775,7 @@
         <v>37</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>37</v>
@@ -781,11 +798,11 @@
       <c r="R3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
     </row>
     <row r="4" spans="1:22" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -815,8 +832,8 @@
       <c r="I4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>33</v>
+      <c r="J4" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>33</v>
@@ -842,11 +859,11 @@
       <c r="R4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
     </row>
     <row r="5" spans="1:22" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -876,8 +893,8 @@
       <c r="I5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>33</v>
+      <c r="J5" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>33</v>
@@ -903,11 +920,11 @@
       <c r="R5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
     </row>
     <row r="6" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -937,8 +954,8 @@
       <c r="I6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>33</v>
+      <c r="J6" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>33</v>
@@ -964,11 +981,11 @@
       <c r="R6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
     </row>
     <row r="7" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -999,7 +1016,7 @@
         <v>33</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>33</v>
@@ -1022,33 +1039,33 @@
       <c r="R7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
     </row>
     <row r="8" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="8"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="5"/>
     </row>
     <row r="9" spans="1:22" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1078,8 +1095,8 @@
       <c r="I9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>33</v>
+      <c r="J9" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>33</v>
@@ -1102,12 +1119,12 @@
       <c r="R9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S9" s="5" t="s">
+      <c r="S9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="7"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="4"/>
     </row>
     <row r="10" spans="1:22" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -1137,8 +1154,8 @@
       <c r="I10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>33</v>
+      <c r="J10" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>33</v>
@@ -1161,12 +1178,12 @@
       <c r="R10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="S10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="7"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="4"/>
     </row>
     <row r="11" spans="1:22" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -1196,8 +1213,8 @@
       <c r="I11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>33</v>
+      <c r="J11" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>33</v>
@@ -1220,10 +1237,10 @@
       <c r="R11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="7"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="4"/>
     </row>
     <row r="12" spans="1:22" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -1253,8 +1270,8 @@
       <c r="I12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>33</v>
+      <c r="J12" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>33</v>
@@ -1277,34 +1294,34 @@
       <c r="R12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="7"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="4"/>
     </row>
     <row r="13" spans="1:22" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="7"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="4"/>
     </row>
     <row r="14" spans="1:22" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -1322,8 +1339,8 @@
       <c r="E14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>33</v>
+      <c r="J14" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>33</v>
@@ -1340,12 +1357,12 @@
       <c r="O14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S14" s="6" t="s">
+      <c r="S14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="7"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="4"/>
     </row>
     <row r="15" spans="1:22" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1363,8 +1380,8 @@
       <c r="E15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>33</v>
+      <c r="J15" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>33</v>
@@ -1381,10 +1398,10 @@
       <c r="O15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="7"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="4"/>
     </row>
     <row r="16" spans="1:22" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -1402,8 +1419,8 @@
       <c r="E16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>33</v>
+      <c r="J16" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>33</v>
@@ -1420,10 +1437,10 @@
       <c r="O16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="7"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="4"/>
     </row>
     <row r="17" spans="1:22" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -1441,8 +1458,8 @@
       <c r="E17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>33</v>
+      <c r="J17" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>33</v>
@@ -1459,34 +1476,34 @@
       <c r="O17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="7"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="4"/>
     </row>
     <row r="18" spans="1:22" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="7"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="4"/>
     </row>
     <row r="19" spans="1:22" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -1498,10 +1515,10 @@
       <c r="E19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="3" t="s">
         <v>33</v>
       </c>
@@ -1523,12 +1540,12 @@
       <c r="O19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S19" s="6" t="s">
+      <c r="S19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="7"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="4"/>
     </row>
     <row r="20" spans="1:22" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -1570,12 +1587,12 @@
       <c r="O20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S20" s="6" t="s">
+      <c r="S20" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="7"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="4"/>
     </row>
     <row r="21" spans="1:22" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -1617,13 +1634,21 @@
       <c r="O21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="7"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S7:U7"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="K1:R1"/>
     <mergeCell ref="S1:U1"/>
@@ -1640,14 +1665,6 @@
     <mergeCell ref="S15:U15"/>
     <mergeCell ref="S16:U16"/>
     <mergeCell ref="S17:U17"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="B1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
